--- a/PythonBitCoin/data.xlsx
+++ b/PythonBitCoin/data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Profit" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,14 +422,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-03-30 18:56:54.938418</t>
+        </is>
       </c>
-      <c r="B1" t="n">
-        <v>2</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>코인명: KRW-STRK, 수익률: -2.7153%</t>
+        </is>
       </c>
-      <c r="C1" t="n">
-        <v>3</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ProfitReport</t>
+        </is>
       </c>
     </row>
   </sheetData>
